--- a/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT30"/>
+  <dimension ref="A1:AU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -721,7 +727,6 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -730,17 +735,6 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -777,16 +771,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -845,7 +834,6 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -854,17 +842,6 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -901,16 +878,11 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -980,21 +952,11 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1031,16 +993,11 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1079,7 +1036,6 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>2</v>
       </c>
@@ -1108,21 +1064,11 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1159,16 +1105,11 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1227,7 +1168,6 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1236,17 +1176,6 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1283,16 +1212,11 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1362,21 +1286,11 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1413,16 +1327,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1481,7 +1390,6 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1490,16 +1398,6 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
           <t>SUSPENDED</t>
@@ -1541,16 +1439,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1609,7 +1502,6 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1618,17 +1510,6 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1665,16 +1546,11 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1733,7 +1609,6 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1742,16 +1617,6 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -1793,16 +1658,11 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1861,7 +1721,6 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1870,16 +1729,6 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
@@ -1921,16 +1770,11 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2000,21 +1844,11 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -2051,16 +1885,11 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2119,7 +1948,6 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2128,16 +1956,6 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
           <t>SUSPENDED</t>
@@ -2179,16 +1997,11 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2247,7 +2060,6 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2256,17 +2068,6 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2303,16 +2104,11 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2371,7 +2167,6 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2380,17 +2175,6 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2427,16 +2211,11 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2495,7 +2274,6 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2504,17 +2282,6 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2551,16 +2318,11 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2630,21 +2392,11 @@
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -2681,16 +2433,11 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2760,21 +2507,11 @@
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -2811,16 +2548,11 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2890,17 +2622,6 @@
       <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
@@ -2937,7 +2658,6 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2953,8 +2673,6 @@
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3013,7 +2731,6 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3022,10 +2739,10 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="Q20" s="3" t="n">
         <v>44576</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" s="3" t="n">
         <v>44576</v>
       </c>
       <c r="S20" t="inlineStr">
@@ -3038,19 +2755,19 @@
           <t>012-2021</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="X20" s="3" t="n">
         <v>44448</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="Y20" s="3" t="n">
         <v>44456</v>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3058,7 +2775,6 @@
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
@@ -3095,7 +2811,6 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3106,9 +2821,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3167,7 +2879,6 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3176,10 +2887,10 @@
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="Q21" s="3" t="n">
         <v>44576</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="3" t="n">
         <v>44576</v>
       </c>
       <c r="S21" t="inlineStr">
@@ -3192,19 +2903,19 @@
           <t>012-2022</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>44331</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>44307</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="3" t="n">
         <v>44448</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Y21" s="3" t="n">
         <v>44457</v>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3212,7 +2923,6 @@
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
@@ -3249,7 +2959,6 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3260,9 +2969,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3352,7 +3058,7 @@
           <t>CY 2023 REPAIR/REHAB OF GABALDON BLDG-01</t>
         </is>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>44963</v>
       </c>
       <c r="V22" t="inlineStr">
@@ -3370,7 +3076,7 @@
           <t>7/20/2023</t>
         </is>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Y22" s="3" t="n">
         <v>45177</v>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3419,7 +3125,6 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="n">
         <v>1.24</v>
       </c>
@@ -3433,8 +3138,6 @@
           <t>cy 2024</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3493,7 +3196,6 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3527,10 +3229,10 @@
           <t>3/29/2023</t>
         </is>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>44990</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>44990</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -3548,7 +3250,6 @@
           <t>Vhits D.G Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
@@ -3585,7 +3286,6 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="n">
         <v>12.23</v>
       </c>
@@ -3599,8 +3299,6 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3690,7 +3388,7 @@
           <t>2023-018</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45081</v>
       </c>
       <c r="V24" t="inlineStr">
@@ -3759,7 +3457,6 @@
       <c r="AM24" t="n">
         <v>0</v>
       </c>
-      <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="n">
         <v>6.24</v>
       </c>
@@ -3768,9 +3465,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr">
         <is>
           <t>completed</t>
@@ -3845,7 +3539,7 @@
           <t>1/25/2024</t>
         </is>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="R25" s="3" t="n">
         <v>45627</v>
       </c>
       <c r="S25" t="inlineStr">
@@ -3863,10 +3557,10 @@
           <t>4/17/2023</t>
         </is>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45174</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45174</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -3874,7 +3568,7 @@
           <t>7/17/2023</t>
         </is>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="Y25" s="3" t="n">
         <v>44993</v>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3923,7 +3617,6 @@
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-      <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="n">
         <v>3.24</v>
       </c>
@@ -3937,8 +3630,6 @@
           <t>cy 2024</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4030,7 +3721,7 @@
           <t>CY 2024 GABALDON</t>
         </is>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45599</v>
       </c>
       <c r="V26" t="inlineStr">
@@ -4038,10 +3729,10 @@
           <t>3/20/2024</t>
         </is>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>45326</v>
       </c>
-      <c r="X26" s="2" t="n">
+      <c r="X26" s="3" t="n">
         <v>45508</v>
       </c>
       <c r="Y26" t="inlineStr">
@@ -4095,7 +3786,6 @@
       <c r="AM26" t="n">
         <v>1</v>
       </c>
-      <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="n">
         <v>5.25</v>
       </c>
@@ -4104,8 +3794,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="n">
         <v>5</v>
       </c>
@@ -4180,10 +3868,9 @@
       <c r="P27" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="3" t="n">
         <v>45302</v>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>CY2024-GABALDON-L1</t>
@@ -4194,10 +3881,10 @@
           <t>CY2024-GABALDON-L1</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45354</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45599</v>
       </c>
       <c r="W27" t="inlineStr">
@@ -4205,7 +3892,7 @@
           <t>3/25/2024</t>
         </is>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="3" t="n">
         <v>45572</v>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4218,7 +3905,6 @@
           <t>TUBIGAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
         <v>0</v>
       </c>
@@ -4255,15 +3941,11 @@
       <c r="AM27" t="n">
         <v>0</v>
       </c>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="n">
         <v>4</v>
       </c>
@@ -4338,10 +4020,9 @@
       <c r="P28" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="Q28" s="3" t="n">
         <v>45749</v>
       </c>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-1</t>
@@ -4352,7 +4033,7 @@
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-1</t>
         </is>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45355</v>
       </c>
       <c r="V28" t="inlineStr">
@@ -4370,7 +4051,7 @@
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Y28" s="2" t="n">
+      <c r="Y28" s="3" t="n">
         <v>45299</v>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4419,15 +4100,11 @@
       <c r="AM28" t="n">
         <v>0.15</v>
       </c>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
@@ -4522,7 +4199,7 @@
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-2</t>
         </is>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>45355</v>
       </c>
       <c r="V29" t="inlineStr">
@@ -4550,7 +4227,6 @@
           <t>FOUR K BUILDERS &amp; CONST. SUPPLIES</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
         <v>0</v>
       </c>
@@ -4587,7 +4263,6 @@
       <c r="AM29" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="n">
         <v>5.25</v>
       </c>
@@ -4596,8 +4271,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="n">
         <v>5</v>
       </c>
@@ -4677,7 +4350,6 @@
           <t>7/21/2025</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>INFRA-2024-04</t>
@@ -4688,7 +4360,7 @@
           <t>INFRA-2024-04</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45603</v>
       </c>
       <c r="V30" t="inlineStr">
@@ -4706,7 +4378,7 @@
           <t>9/25/2024</t>
         </is>
       </c>
-      <c r="Y30" s="2" t="n">
+      <c r="Y30" s="3" t="n">
         <v>45870</v>
       </c>
       <c r="Z30" t="inlineStr">
@@ -4755,21 +4427,90 @@
       <c r="AM30" t="n">
         <v>0.2</v>
       </c>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="n">
         <v>10</v>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
           <t>Ongoing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU30" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
@@ -735,41 +735,8 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -842,41 +809,8 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
       <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -957,41 +891,8 @@
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1069,41 +970,8 @@
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1176,41 +1044,8 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1291,41 +1126,8 @@
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
       <c r="AL7" t="n">
         <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1403,41 +1205,8 @@
           <t>SUSPENDED</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
       <c r="AL8" t="n">
         <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1510,41 +1279,8 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
       <c r="AL9" t="n">
         <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1622,41 +1358,8 @@
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
       <c r="AL10" t="n">
         <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -1734,41 +1437,8 @@
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
       <c r="AL11" t="n">
         <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -1849,41 +1519,8 @@
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
       <c r="AL12" t="n">
         <v>1</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -1961,41 +1598,8 @@
           <t>SUSPENDED</t>
         </is>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
       <c r="AL13" t="n">
         <v>1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2068,41 +1672,8 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1</v>
-      </c>
       <c r="AL14" t="n">
         <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -2175,41 +1746,8 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
       <c r="AL15" t="n">
         <v>1</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -2282,41 +1820,8 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
       <c r="AL16" t="n">
         <v>1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
@@ -2397,41 +1902,8 @@
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
       <c r="AL17" t="n">
         <v>1</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
@@ -2512,41 +1984,8 @@
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
       <c r="AL18" t="n">
         <v>1</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -2622,41 +2061,8 @@
       <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
       <c r="AL19" t="n">
         <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
@@ -2775,41 +2181,8 @@
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1</v>
-      </c>
       <c r="AL20" t="n">
         <v>1</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
@@ -2923,41 +2296,8 @@
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1</v>
-      </c>
       <c r="AL21" t="n">
         <v>1</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
@@ -3089,41 +2429,8 @@
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
       <c r="AL22" t="n">
         <v>1</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>1.24</v>
@@ -3250,41 +2557,8 @@
           <t>Vhits D.G Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
       <c r="AL23" t="n">
         <v>1</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
       </c>
       <c r="AO23" t="n">
         <v>12.23</v>
@@ -3421,41 +2695,8 @@
           <t>WITH TIME EXTENSIONS AND WITH LIQUIDATED DAMAGES</t>
         </is>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1</v>
-      </c>
       <c r="AL24" t="n">
         <v>1</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>6.24</v>
@@ -3581,41 +2822,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1</v>
-      </c>
       <c r="AL25" t="n">
         <v>1</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>3.24</v>
@@ -3750,42 +2958,9 @@
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
       <c r="AL26" t="n">
         <v>0</v>
       </c>
-      <c r="AM26" t="n">
-        <v>1</v>
-      </c>
       <c r="AO26" t="n">
         <v>5.25</v>
       </c>
@@ -3905,42 +3080,9 @@
           <t>TUBIGAN BUILDERS</t>
         </is>
       </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
       <c r="AL27" t="n">
         <v>0.7</v>
       </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
       <c r="AP27" t="inlineStr">
         <is>
           <t>Division Office</t>
@@ -4064,42 +3206,9 @@
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
       <c r="AL28" t="n">
         <v>0.6</v>
       </c>
-      <c r="AM28" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AP28" t="inlineStr">
         <is>
           <t>Division Office</t>
@@ -4227,42 +3336,9 @@
           <t>FOUR K BUILDERS &amp; CONST. SUPPLIES</t>
         </is>
       </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1</v>
-      </c>
       <c r="AL29" t="n">
         <v>0.95</v>
       </c>
-      <c r="AM29" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AO29" t="n">
         <v>5.25</v>
       </c>
@@ -4391,41 +3467,8 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
       <c r="AL30" t="n">
         <v>0.15</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0.2</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>

--- a/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,2756 +447,2787 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="58" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="99" customWidth="1" min="19" max="19"/>
+    <col width="99" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="35" customWidth="1" min="26" max="26"/>
+    <col width="50" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Baybay City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>121102</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Baybay II Central School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYBAY</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>8001304.06</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="inlineStr"/>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr"/>
-      <c r="W2" s="4" t="inlineStr"/>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="n"/>
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="5" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr"/>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Baybay City</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>121125</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Plaridel Central School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYBAY</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>4824381.51</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="inlineStr"/>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr"/>
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="4" t="inlineStr"/>
-      <c r="V3" s="4" t="inlineStr"/>
-      <c r="W3" s="4" t="inlineStr"/>
-      <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr"/>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="5" t="inlineStr"/>
+      <c r="W3" s="5" t="inlineStr"/>
+      <c r="X3" s="5" t="inlineStr"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Biliran</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>120758</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Almeria CS</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>ALMERIA</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>4140117.82</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>4108000</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
-      <c r="U4" s="4" t="inlineStr"/>
-      <c r="V4" s="4" t="inlineStr"/>
-      <c r="W4" s="4" t="inlineStr"/>
-      <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr"/>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="5" t="inlineStr"/>
+      <c r="V4" s="5" t="inlineStr"/>
+      <c r="W4" s="5" t="inlineStr"/>
+      <c r="X4" s="5" t="inlineStr"/>
+      <c r="Y4" s="5" t="inlineStr"/>
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Biliran</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>120758</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Almeria CS (Balwarte Camp)</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>ALMERIA</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>4128547.93</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>4108000</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
-      <c r="X5" s="4" t="inlineStr"/>
-      <c r="Y5" s="4" t="inlineStr"/>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="5" t="inlineStr"/>
+      <c r="V5" s="5" t="inlineStr"/>
+      <c r="W5" s="5" t="inlineStr"/>
+      <c r="X5" s="5" t="inlineStr"/>
+      <c r="Y5" s="5" t="inlineStr"/>
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Catbalogan City</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>123416</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Catbalogan V CES (Mercedes ES)</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CITY OF CATBALOGAN (Capital)</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>1205717.66</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr"/>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr"/>
+      <c r="W6" s="5" t="inlineStr"/>
+      <c r="X6" s="5" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>121154</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Burauen North Central School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>BARAUEN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>8204817.56</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>8154000</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr"/>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr"/>
+      <c r="W7" s="5" t="inlineStr"/>
+      <c r="X7" s="5" t="inlineStr"/>
+      <c r="Y7" s="5" t="inlineStr"/>
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr"/>
-      <c r="AB7" s="4" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>121685</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Waterloo Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>MATALOM</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>3610927.59</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="inlineStr"/>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr"/>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="4" t="inlineStr">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr"/>
+      <c r="X8" s="5" t="inlineStr"/>
+      <c r="Y8" s="5" t="inlineStr"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>SUSPENDED</t>
         </is>
       </c>
-      <c r="AB8" s="4" t="n"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Maasin</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>122174</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>San Rafael Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>CITY OF MAASIN (Capital)</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>2101688.56</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="inlineStr"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Samar (Western Samar)</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>123374</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Literon Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>CALBIGA</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>1037799.8</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="inlineStr"/>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr"/>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="4" t="inlineStr">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AB10" s="4" t="n"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Samar (Western Samar)</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>303643</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Zumarraga NHS</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>ZUMARRAGA</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>2751335.62</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr"/>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="inlineStr">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr"/>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AB11" s="4" t="n"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>122074</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Mahalo Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Anahawan</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>2714955.185486338</v>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="n">
+      <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>2900170.11</v>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr"/>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA12" s="4" t="inlineStr"/>
-      <c r="AB12" s="4" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>122020</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Sta. Cruz Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Bontoc</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>2750323.3</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="inlineStr"/>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="4" t="inlineStr"/>
-      <c r="V13" s="4" t="inlineStr"/>
-      <c r="W13" s="4" t="inlineStr"/>
-      <c r="X13" s="4" t="inlineStr"/>
-      <c r="Y13" s="4" t="inlineStr"/>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="inlineStr">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr"/>
+      <c r="W13" s="5" t="inlineStr"/>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="5" t="inlineStr">
         <is>
           <t>SUSPENDED</t>
         </is>
       </c>
-      <c r="AB13" s="4" t="n"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>122080</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Libagon Central School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Libagon</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>2314497.811642644</v>
       </c>
-      <c r="M14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="inlineStr"/>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr"/>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="4" t="inlineStr"/>
-      <c r="W14" s="4" t="inlineStr"/>
-      <c r="X14" s="4" t="inlineStr"/>
-      <c r="Y14" s="4" t="inlineStr"/>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="inlineStr"/>
-      <c r="AB14" s="4" t="n"/>
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr"/>
+      <c r="W14" s="5" t="inlineStr"/>
+      <c r="X14" s="5" t="inlineStr"/>
+      <c r="Y14" s="5" t="inlineStr"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>122185</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Ichon Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Macrohon</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>2055875.56500382</v>
       </c>
-      <c r="M15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
-      <c r="Y15" s="4" t="inlineStr"/>
-      <c r="Z15" s="4" t="inlineStr"/>
-      <c r="AA15" s="4" t="inlineStr"/>
-      <c r="AB15" s="4" t="n"/>
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="R15" s="5" t="inlineStr"/>
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="5" t="inlineStr"/>
+      <c r="U15" s="5" t="inlineStr"/>
+      <c r="V15" s="5" t="inlineStr"/>
+      <c r="W15" s="5" t="inlineStr"/>
+      <c r="X15" s="5" t="inlineStr"/>
+      <c r="Y15" s="5" t="inlineStr"/>
+      <c r="Z15" s="5" t="inlineStr"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>122213</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>San Vicente Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Malitbog</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>6301644.650733924</v>
       </c>
-      <c r="M16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="inlineStr"/>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4" t="inlineStr"/>
-      <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="4" t="inlineStr"/>
-      <c r="U16" s="4" t="inlineStr"/>
-      <c r="V16" s="4" t="inlineStr"/>
-      <c r="W16" s="4" t="inlineStr"/>
-      <c r="X16" s="4" t="inlineStr"/>
-      <c r="Y16" s="4" t="inlineStr"/>
-      <c r="Z16" s="4" t="inlineStr"/>
-      <c r="AA16" s="4" t="inlineStr"/>
-      <c r="AB16" s="4" t="n"/>
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="5" t="inlineStr"/>
+      <c r="U16" s="5" t="inlineStr"/>
+      <c r="V16" s="5" t="inlineStr"/>
+      <c r="W16" s="5" t="inlineStr"/>
+      <c r="X16" s="5" t="inlineStr"/>
+      <c r="Y16" s="5" t="inlineStr"/>
+      <c r="Z16" s="5" t="inlineStr"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>122239</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Pintuyan Central School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Pintuyan</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>2459716.877123808</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="n">
+      <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>2492209.98</v>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="4" t="inlineStr"/>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="4" t="inlineStr"/>
-      <c r="V17" s="4" t="inlineStr"/>
-      <c r="W17" s="4" t="inlineStr"/>
-      <c r="X17" s="4" t="inlineStr"/>
-      <c r="Y17" s="4" t="inlineStr"/>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr"/>
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr"/>
+      <c r="W17" s="5" t="inlineStr"/>
+      <c r="X17" s="5" t="inlineStr"/>
+      <c r="Y17" s="5" t="inlineStr"/>
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA17" s="4" t="inlineStr"/>
-      <c r="AB17" s="4" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>122252</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>San Juan Central ElementarySchool</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>San Juan (Cabalian)</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>3133535.518583077</v>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="n">
+      <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>2900170.11</v>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4" t="inlineStr"/>
-      <c r="R18" s="4" t="inlineStr"/>
-      <c r="S18" s="4" t="inlineStr"/>
-      <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="4" t="inlineStr"/>
-      <c r="V18" s="4" t="inlineStr"/>
-      <c r="W18" s="4" t="inlineStr"/>
-      <c r="X18" s="4" t="inlineStr"/>
-      <c r="Y18" s="4" t="inlineStr"/>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr"/>
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="5" t="inlineStr"/>
+      <c r="U18" s="5" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr"/>
+      <c r="W18" s="5" t="inlineStr"/>
+      <c r="X18" s="5" t="inlineStr"/>
+      <c r="Y18" s="5" t="inlineStr"/>
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="inlineStr"/>
-      <c r="AB18" s="4" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Baybay City</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>121082</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Gaas Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYBAY</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>3661725</v>
       </c>
-      <c r="M19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4" t="n">
+      <c r="M19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>3585000</v>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr"/>
-      <c r="T19" s="4" t="inlineStr"/>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="inlineStr"/>
-      <c r="AB19" s="4" t="n"/>
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr"/>
+      <c r="W19" s="5" t="inlineStr"/>
+      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Y19" s="5" t="inlineStr"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>122484</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Gen. MacArthur Central Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>GENERAL MACARTHUR</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>4910770</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5" t="n">
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="n">
         <v>44576</v>
       </c>
-      <c r="R20" s="5" t="n">
+      <c r="R20" s="7" t="n">
         <v>44576</v>
       </c>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>21-04-262</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>012-2021</t>
         </is>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="7" t="n">
         <v>44331</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="7" t="n">
         <v>44307</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="X20" s="5" t="n">
+      <c r="X20" s="7" t="n">
         <v>44448</v>
       </c>
-      <c r="Y20" s="5" t="n">
+      <c r="Y20" s="7" t="n">
         <v>44456</v>
       </c>
-      <c r="Z20" s="4" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA20" s="4" t="inlineStr"/>
-      <c r="AB20" s="4" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>122758</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Sulat Central Elementary School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>SULAT</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>5510971</v>
       </c>
-      <c r="M21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="inlineStr"/>
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5" t="n">
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7" t="n">
         <v>44576</v>
       </c>
-      <c r="R21" s="5" t="n">
+      <c r="R21" s="7" t="n">
         <v>44576</v>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>21-04-263</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>012-2022</t>
         </is>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="7" t="n">
         <v>44331</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="7" t="n">
         <v>44307</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="X21" s="5" t="n">
+      <c r="X21" s="7" t="n">
         <v>44448</v>
       </c>
-      <c r="Y21" s="5" t="n">
+      <c r="Y21" s="7" t="n">
         <v>44457</v>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA21" s="4" t="inlineStr"/>
-      <c r="AB21" s="4" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Biliran</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>120770</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>TABUNAN ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>ALMERIA</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>2809414.04</v>
       </c>
-      <c r="M22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4" t="n">
+      <c r="M22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="n">
         <v>659450.8</v>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>12/13/2023</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>12/13/2023</t>
         </is>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>2024INFRA-Repair-008</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>CY 2023 REPAIR/REHAB OF GABALDON BLDG-01</t>
         </is>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="7" t="n">
         <v>44963</v>
       </c>
-      <c r="V22" s="4" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>6/26/2023</t>
         </is>
       </c>
-      <c r="W22" s="4" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>6/26/2023</t>
         </is>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>7/20/2023</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="n">
+      <c r="Y22" s="7" t="n">
         <v>45177</v>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>MB ANG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA22" s="4" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB22" s="4" t="n"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>122775</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Taft  Central Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>TAFT</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>6520393.33</v>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="P23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>################</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>9/30/2023</t>
         </is>
       </c>
-      <c r="S23" s="4" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>CY2023-GAB-B1-LOT1</t>
         </is>
       </c>
-      <c r="T23" s="4" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>CY2023-GAB-B1-LOT1</t>
         </is>
       </c>
-      <c r="U23" s="4" t="inlineStr">
+      <c r="U23" s="5" t="inlineStr">
         <is>
           <t>3/29/2023</t>
         </is>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="7" t="n">
         <v>44990</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="7" t="n">
         <v>44990</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>###########</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>5/26/2023</t>
         </is>
       </c>
-      <c r="Z23" s="4" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>Vhits D.G Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA23" s="4" t="inlineStr"/>
-      <c r="AB23" s="4" t="n"/>
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Samar (Western Samar)</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>123655</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Pagsanghan Central Elementary School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>PAGSANGHAN</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="G24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>14000000</v>
       </c>
-      <c r="M24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4" t="n">
+      <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>13951642.86</v>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>1/15/2024</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>2/25/2024</t>
         </is>
       </c>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>CY2023GABLOT1</t>
         </is>
       </c>
-      <c r="T24" s="4" t="inlineStr">
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>2023-018</t>
         </is>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="7" t="n">
         <v>45081</v>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="V24" s="5" t="inlineStr">
         <is>
           <t>4/28/2023</t>
         </is>
       </c>
-      <c r="W24" s="4" t="inlineStr">
+      <c r="W24" s="5" t="inlineStr">
         <is>
           <t>4/28/2023</t>
         </is>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>###########</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>6/23/2023</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>MJM BUILDERS</t>
         </is>
       </c>
-      <c r="AA24" s="4" t="inlineStr">
+      <c r="AA24" s="5" t="inlineStr">
         <is>
           <t>WITH TIME EXTENSIONS AND WITH LIQUIDATED DAMAGES</t>
         </is>
       </c>
-      <c r="AB24" s="4" t="n"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>122230</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Triana Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>LIMASAWA</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="G25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>6428742.23</v>
       </c>
-      <c r="M25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4" t="n">
+      <c r="M25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5" t="n">
         <v>6302256.68</v>
       </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>1/25/2024</t>
         </is>
       </c>
-      <c r="R25" s="5" t="n">
+      <c r="R25" s="7" t="n">
         <v>45627</v>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>CY2023-Gabaldon-L1</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>CY2023-Gabaldon-L1</t>
         </is>
       </c>
-      <c r="U25" s="4" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>4/17/2023</t>
         </is>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="7" t="n">
         <v>45174</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="7" t="n">
         <v>45174</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>7/17/2023</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="n">
+      <c r="Y25" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA25" s="4" t="inlineStr">
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AB25" s="4" t="n"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Borongan City</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>122387</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>San Saturnino Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>CITY OF BORONGAN (Capital)</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>6331343.3</v>
       </c>
-      <c r="M26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4" t="n">
+      <c r="M26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="n">
         <v>6326335.72</v>
       </c>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="P26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>11/18/2024</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>11/15/2024</t>
         </is>
       </c>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>CY 2024 GABALDON</t>
         </is>
       </c>
-      <c r="T26" s="4" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>CY 2024 GABALDON</t>
         </is>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>3/20/2024</t>
         </is>
       </c>
-      <c r="W26" s="5" t="n">
+      <c r="W26" s="7" t="n">
         <v>45326</v>
       </c>
-      <c r="X26" s="5" t="n">
+      <c r="X26" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>7/17/2024</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>LEXBUILD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="inlineStr">
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB26" s="4" t="n"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>122524</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Guiuan East Central School</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>GUIUAN</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>5974124.58</v>
       </c>
-      <c r="M27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="4" t="n">
+      <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="n">
         <v>5946102.72</v>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P27" s="4" t="n">
+      <c r="P27" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q27" s="5" t="n">
+      <c r="Q27" s="7" t="n">
         <v>45302</v>
       </c>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>CY2024-GABALDON-L1</t>
         </is>
       </c>
-      <c r="T27" s="4" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>CY2024-GABALDON-L1</t>
         </is>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="7" t="n">
         <v>45354</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="W27" s="4" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>3/25/2024</t>
         </is>
       </c>
-      <c r="X27" s="5" t="n">
+      <c r="X27" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>7/27/2024</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>TUBIGAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA27" s="4" t="inlineStr"/>
-      <c r="AB27" s="4" t="n"/>
+      <c r="AA27" s="5" t="inlineStr"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>121004</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Tinag-an Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>ALBUERA</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>5036203.53</v>
       </c>
-      <c r="M28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4" t="n">
+      <c r="M28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="n">
         <v>3878143.65</v>
       </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P28" s="4" t="n">
+      <c r="P28" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q28" s="5" t="n">
+      <c r="Q28" s="7" t="n">
         <v>45749</v>
       </c>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-1</t>
         </is>
       </c>
-      <c r="T28" s="4" t="inlineStr">
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-1</t>
         </is>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>4/15/2024</t>
         </is>
       </c>
-      <c r="W28" s="4" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>4/29/2024</t>
         </is>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="n">
+      <c r="Y28" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>SAINT JOSPEH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA28" s="4" t="inlineStr">
+      <c r="AA28" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AB28" s="4" t="n"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>121446</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Matlang Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>ISABEL</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>4010447.89</v>
       </c>
-      <c r="M29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="4" t="n">
+      <c r="M29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5" t="n">
         <v>3958128.42</v>
       </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="P29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>12/30/2024</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>12/30/2024</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-2</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-2</t>
         </is>
       </c>
-      <c r="U29" s="5" t="n">
+      <c r="U29" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="V29" s="4" t="inlineStr">
+      <c r="V29" s="5" t="inlineStr">
         <is>
           <t>4/15/2024</t>
         </is>
       </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>4/29/2024</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>7/26/2024</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>FOUR K BUILDERS &amp; CONST. SUPPLIES</t>
         </is>
       </c>
-      <c r="AA29" s="4" t="inlineStr"/>
-      <c r="AB29" s="4" t="n"/>
+      <c r="AA29" s="5" t="inlineStr"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Maasin City</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>122177</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Tomas Oppus Pilot School (TOPS)</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>CITY OF MAASIN (Capital)</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>8601473.609999999</v>
       </c>
-      <c r="M30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4" t="n">
+      <c r="M30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="n">
         <v>5962743.44</v>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P30" s="4" t="n">
+      <c r="P30" s="5" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>7/21/2025</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2024-04</t>
         </is>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2024-04</t>
         </is>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="7" t="n">
         <v>45603</v>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>7/19/2024</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>7/31/2024</t>
         </is>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>9/25/2024</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="n">
+      <c r="Y30" s="7" t="n">
         <v>45870</v>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>VHITS D.G. BUILDERS &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA30" s="4" t="inlineStr">
+      <c r="AA30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AB30" s="4" t="n"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VIII/Region VIII_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,240 +453,248 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="58" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="11" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="58" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="99" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
     <col width="99" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="35" customWidth="1" min="26" max="26"/>
-    <col width="50" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="99" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="35" customWidth="1" min="27" max="27"/>
+    <col width="50" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Baybay City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>121102</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Baybay II Central School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYBAY</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>8001304.06</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5" t="inlineStr"/>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
       <c r="T2" s="5" t="inlineStr"/>
@@ -697,70 +705,73 @@
       <c r="Y2" s="5" t="inlineStr"/>
       <c r="Z2" s="5" t="inlineStr"/>
       <c r="AA2" s="5" t="inlineStr"/>
-      <c r="AB2" s="6" t="n"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Baybay City</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>121125</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Plaridel Central School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYBAY</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>4824381.51</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="inlineStr"/>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" s="5" t="inlineStr"/>
       <c r="S3" s="5" t="inlineStr"/>
       <c r="T3" s="5" t="inlineStr"/>
@@ -771,72 +782,75 @@
       <c r="Y3" s="5" t="inlineStr"/>
       <c r="Z3" s="5" t="inlineStr"/>
       <c r="AA3" s="5" t="inlineStr"/>
-      <c r="AB3" s="6" t="n"/>
+      <c r="AB3" s="5" t="inlineStr"/>
+      <c r="AC3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Biliran</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>120758</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Almeria CS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>ALMERIA</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>4140117.82</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>4108000</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" s="5" t="inlineStr"/>
       <c r="S4" s="5" t="inlineStr"/>
       <c r="T4" s="5" t="inlineStr"/>
@@ -845,76 +859,79 @@
       <c r="W4" s="5" t="inlineStr"/>
       <c r="X4" s="5" t="inlineStr"/>
       <c r="Y4" s="5" t="inlineStr"/>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr"/>
-      <c r="AB4" s="6" t="n"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Biliran</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>120758</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Almeria CS (Balwarte Camp)</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>ALMERIA</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>4128547.93</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>4108000</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" s="5" t="inlineStr"/>
       <c r="S5" s="5" t="inlineStr"/>
       <c r="T5" s="5" t="inlineStr"/>
@@ -923,76 +940,79 @@
       <c r="W5" s="5" t="inlineStr"/>
       <c r="X5" s="5" t="inlineStr"/>
       <c r="Y5" s="5" t="inlineStr"/>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr"/>
-      <c r="AB5" s="6" t="n"/>
+      <c r="AB5" s="5" t="inlineStr"/>
+      <c r="AC5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Catbalogan City</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>123416</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Catbalogan V CES (Mercedes ES)</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CITY OF CATBALOGAN (Capital)</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>1205717.66</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="5" t="inlineStr"/>
@@ -1003,72 +1023,75 @@
       <c r="Y6" s="5" t="inlineStr"/>
       <c r="Z6" s="5" t="inlineStr"/>
       <c r="AA6" s="5" t="inlineStr"/>
-      <c r="AB6" s="6" t="n"/>
+      <c r="AB6" s="5" t="inlineStr"/>
+      <c r="AC6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>121154</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Burauen North Central School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>BARAUEN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>8204817.56</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>8154000</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" s="5" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="5" t="inlineStr"/>
@@ -1077,76 +1100,79 @@
       <c r="W7" s="5" t="inlineStr"/>
       <c r="X7" s="5" t="inlineStr"/>
       <c r="Y7" s="5" t="inlineStr"/>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>J. Custorio Construction</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr"/>
-      <c r="AB7" s="6" t="n"/>
+      <c r="AB7" s="5" t="inlineStr"/>
+      <c r="AC7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>99</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>121685</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Waterloo Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>MATALOM</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>3610927.59</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" s="5" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
@@ -1156,75 +1182,78 @@
       <c r="X8" s="5" t="inlineStr"/>
       <c r="Y8" s="5" t="inlineStr"/>
       <c r="Z8" s="5" t="inlineStr"/>
-      <c r="AA8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="5" t="inlineStr">
         <is>
           <t>SUSPENDED</t>
         </is>
       </c>
-      <c r="AB8" s="6" t="n"/>
+      <c r="AC8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Maasin</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>122174</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>San Rafael Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>CITY OF MAASIN (Capital)</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>2101688.56</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
@@ -1235,70 +1264,73 @@
       <c r="Y9" s="5" t="inlineStr"/>
       <c r="Z9" s="5" t="inlineStr"/>
       <c r="AA9" s="5" t="inlineStr"/>
-      <c r="AB9" s="6" t="n"/>
+      <c r="AB9" s="5" t="inlineStr"/>
+      <c r="AC9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Samar (Western Samar)</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>123374</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Literon Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>CALBIGA</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>1037799.8</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" s="5" t="inlineStr"/>
       <c r="S10" s="5" t="inlineStr"/>
       <c r="T10" s="5" t="inlineStr"/>
@@ -1308,75 +1340,78 @@
       <c r="X10" s="5" t="inlineStr"/>
       <c r="Y10" s="5" t="inlineStr"/>
       <c r="Z10" s="5" t="inlineStr"/>
-      <c r="AA10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AB10" s="6" t="n"/>
+      <c r="AC10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Samar (Western Samar)</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>303643</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Zumarraga NHS</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>ZUMARRAGA</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>2751335.62</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" s="5" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr"/>
       <c r="T11" s="5" t="inlineStr"/>
@@ -1386,77 +1421,80 @@
       <c r="X11" s="5" t="inlineStr"/>
       <c r="Y11" s="5" t="inlineStr"/>
       <c r="Z11" s="5" t="inlineStr"/>
-      <c r="AA11" s="5" t="inlineStr">
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="5" t="inlineStr">
         <is>
           <t>FOR AWARD</t>
         </is>
       </c>
-      <c r="AB11" s="6" t="n"/>
+      <c r="AC11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>122074</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Mahalo Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Anahawan</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>2714955.185486338</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="n">
         <v>2900170.11</v>
       </c>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
       <c r="T12" s="5" t="inlineStr"/>
@@ -1465,76 +1503,79 @@
       <c r="W12" s="5" t="inlineStr"/>
       <c r="X12" s="5" t="inlineStr"/>
       <c r="Y12" s="5" t="inlineStr"/>
-      <c r="Z12" s="5" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="5" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="inlineStr"/>
-      <c r="AB12" s="6" t="n"/>
+      <c r="AB12" s="5" t="inlineStr"/>
+      <c r="AC12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>122020</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Sta. Cruz Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Bontoc</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>2750323.3</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="5" t="inlineStr"/>
@@ -1544,75 +1585,78 @@
       <c r="X13" s="5" t="inlineStr"/>
       <c r="Y13" s="5" t="inlineStr"/>
       <c r="Z13" s="5" t="inlineStr"/>
-      <c r="AA13" s="5" t="inlineStr">
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="5" t="inlineStr">
         <is>
           <t>SUSPENDED</t>
         </is>
       </c>
-      <c r="AB13" s="6" t="n"/>
+      <c r="AC13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>122080</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Libagon Central School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Libagon</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>2314497.811642644</v>
       </c>
-      <c r="M14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" s="5" t="inlineStr"/>
       <c r="S14" s="5" t="inlineStr"/>
       <c r="T14" s="5" t="inlineStr"/>
@@ -1623,70 +1667,73 @@
       <c r="Y14" s="5" t="inlineStr"/>
       <c r="Z14" s="5" t="inlineStr"/>
       <c r="AA14" s="5" t="inlineStr"/>
-      <c r="AB14" s="6" t="n"/>
+      <c r="AB14" s="5" t="inlineStr"/>
+      <c r="AC14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>122185</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Ichon Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Macrohon</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>2055875.56500382</v>
       </c>
-      <c r="M15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" s="5" t="inlineStr"/>
       <c r="S15" s="5" t="inlineStr"/>
       <c r="T15" s="5" t="inlineStr"/>
@@ -1697,70 +1744,73 @@
       <c r="Y15" s="5" t="inlineStr"/>
       <c r="Z15" s="5" t="inlineStr"/>
       <c r="AA15" s="5" t="inlineStr"/>
-      <c r="AB15" s="6" t="n"/>
+      <c r="AB15" s="5" t="inlineStr"/>
+      <c r="AC15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>122213</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>San Vicente Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Malitbog</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>6301644.650733924</v>
       </c>
-      <c r="M16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="inlineStr"/>
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="Q16" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" s="5" t="inlineStr"/>
       <c r="S16" s="5" t="inlineStr"/>
       <c r="T16" s="5" t="inlineStr"/>
@@ -1771,72 +1821,75 @@
       <c r="Y16" s="5" t="inlineStr"/>
       <c r="Z16" s="5" t="inlineStr"/>
       <c r="AA16" s="5" t="inlineStr"/>
-      <c r="AB16" s="6" t="n"/>
+      <c r="AB16" s="5" t="inlineStr"/>
+      <c r="AC16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>122239</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Pintuyan Central School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Pintuyan</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>2459716.877123808</v>
       </c>
-      <c r="M17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="n">
         <v>2492209.98</v>
       </c>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="P17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="Q17" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R17" s="5" t="inlineStr"/>
       <c r="S17" s="5" t="inlineStr"/>
       <c r="T17" s="5" t="inlineStr"/>
@@ -1845,78 +1898,81 @@
       <c r="W17" s="5" t="inlineStr"/>
       <c r="X17" s="5" t="inlineStr"/>
       <c r="Y17" s="5" t="inlineStr"/>
-      <c r="Z17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="5" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA17" s="5" t="inlineStr"/>
-      <c r="AB17" s="6" t="n"/>
+      <c r="AB17" s="5" t="inlineStr"/>
+      <c r="AC17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>122252</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>San Juan Central ElementarySchool</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>San Juan (Cabalian)</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>3133535.518583077</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="n">
         <v>2900170.11</v>
       </c>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="Q18" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" s="5" t="inlineStr"/>
       <c r="S18" s="5" t="inlineStr"/>
       <c r="T18" s="5" t="inlineStr"/>
@@ -1925,78 +1981,81 @@
       <c r="W18" s="5" t="inlineStr"/>
       <c r="X18" s="5" t="inlineStr"/>
       <c r="Y18" s="5" t="inlineStr"/>
-      <c r="Z18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="5" t="inlineStr">
         <is>
           <t>AAVB Construction and Supply</t>
         </is>
       </c>
-      <c r="AA18" s="5" t="inlineStr"/>
-      <c r="AB18" s="6" t="n"/>
+      <c r="AB18" s="5" t="inlineStr"/>
+      <c r="AC18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Baybay City</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>121082</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Gaas Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>CITY OF BAYBAY</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>3661725</v>
       </c>
-      <c r="M19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="n">
         <v>3585000</v>
       </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="P19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="Q19" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R19" s="5" t="inlineStr"/>
       <c r="S19" s="5" t="inlineStr"/>
       <c r="T19" s="5" t="inlineStr"/>
@@ -2007,1231 +2066,1265 @@
       <c r="Y19" s="5" t="inlineStr"/>
       <c r="Z19" s="5" t="inlineStr"/>
       <c r="AA19" s="5" t="inlineStr"/>
-      <c r="AB19" s="6" t="n"/>
+      <c r="AB19" s="5" t="inlineStr"/>
+      <c r="AC19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>122484</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Gen. MacArthur Central Elementary School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>GENERAL MACARTHUR</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="H20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>4910770</v>
       </c>
-      <c r="M20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="inlineStr"/>
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7" t="n">
-        <v>44576</v>
+      <c r="Q20" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>44576</v>
       </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="S20" s="7" t="n">
+        <v>44576</v>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>21-04-262</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>012-2021</t>
         </is>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>44331</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>44307</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="X20" s="7" t="n">
+      <c r="Y20" s="7" t="n">
         <v>44448</v>
       </c>
-      <c r="Y20" s="7" t="n">
+      <c r="Z20" s="7" t="n">
         <v>44456</v>
       </c>
-      <c r="Z20" s="5" t="inlineStr">
+      <c r="AA20" s="5" t="inlineStr">
         <is>
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA20" s="5" t="inlineStr"/>
-      <c r="AB20" s="6" t="n"/>
+      <c r="AB20" s="5" t="inlineStr"/>
+      <c r="AC20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>122758</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Sulat Central Elementary School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>SULAT</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="H21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>5510971</v>
       </c>
-      <c r="M21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7" t="n">
-        <v>44576</v>
+      <c r="Q21" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="R21" s="7" t="n">
         <v>44576</v>
       </c>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="S21" s="7" t="n">
+        <v>44576</v>
+      </c>
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>21-04-263</t>
         </is>
       </c>
-      <c r="T21" s="5" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>012-2022</t>
         </is>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="V21" s="7" t="n">
         <v>44331</v>
       </c>
-      <c r="V21" s="7" t="n">
+      <c r="W21" s="7" t="n">
         <v>44307</v>
       </c>
-      <c r="W21" s="7" t="n">
+      <c r="X21" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="X21" s="7" t="n">
+      <c r="Y21" s="7" t="n">
         <v>44448</v>
       </c>
-      <c r="Y21" s="7" t="n">
+      <c r="Z21" s="7" t="n">
         <v>44457</v>
       </c>
-      <c r="Z21" s="5" t="inlineStr">
+      <c r="AA21" s="5" t="inlineStr">
         <is>
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA21" s="5" t="inlineStr"/>
-      <c r="AB21" s="6" t="n"/>
+      <c r="AB21" s="5" t="inlineStr"/>
+      <c r="AC21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>201</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Biliran</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>120770</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>TABUNAN ES</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>ALMERIA</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>2809414.04</v>
       </c>
-      <c r="M22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="n">
         <v>659450.8</v>
       </c>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="P22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="Q22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>12/13/2023</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>12/13/2023</t>
         </is>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>2024INFRA-Repair-008</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>CY 2023 REPAIR/REHAB OF GABALDON BLDG-01</t>
         </is>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="V22" s="7" t="n">
         <v>44963</v>
       </c>
-      <c r="V22" s="5" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>6/26/2023</t>
         </is>
       </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>6/26/2023</t>
         </is>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>7/20/2023</t>
         </is>
       </c>
-      <c r="Y22" s="7" t="n">
+      <c r="Z22" s="7" t="n">
         <v>45177</v>
       </c>
-      <c r="Z22" s="5" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t>MB ANG CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA22" s="5" t="inlineStr">
+      <c r="AB22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB22" s="6" t="n"/>
+      <c r="AC22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>202</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>122775</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Taft  Central Elementary School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>TAFT</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>6520393.33</v>
       </c>
-      <c r="M23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="Q23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>################</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>9/30/2023</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>CY2023-GAB-B1-LOT1</t>
         </is>
       </c>
-      <c r="T23" s="5" t="inlineStr">
+      <c r="U23" s="5" t="inlineStr">
         <is>
           <t>CY2023-GAB-B1-LOT1</t>
         </is>
       </c>
-      <c r="U23" s="5" t="inlineStr">
+      <c r="V23" s="5" t="inlineStr">
         <is>
           <t>3/29/2023</t>
         </is>
-      </c>
-      <c r="V23" s="7" t="n">
-        <v>44990</v>
       </c>
       <c r="W23" s="7" t="n">
         <v>44990</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="X23" s="7" t="n">
+        <v>44990</v>
+      </c>
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>###########</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>5/26/2023</t>
         </is>
       </c>
-      <c r="Z23" s="5" t="inlineStr">
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>Vhits D.G Builders &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA23" s="5" t="inlineStr"/>
-      <c r="AB23" s="6" t="n"/>
+      <c r="AB23" s="5" t="inlineStr"/>
+      <c r="AC23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>203</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Samar (Western Samar)</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>123655</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Pagsanghan Central Elementary School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>PAGSANGHAN</t>
         </is>
       </c>
-      <c r="G24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>14000000</v>
       </c>
-      <c r="M24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5" t="n">
         <v>13951642.86</v>
       </c>
-      <c r="O24" s="5" t="inlineStr">
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="Q24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>1/15/2024</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>2/25/2024</t>
         </is>
       </c>
-      <c r="S24" s="5" t="inlineStr">
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>CY2023GABLOT1</t>
         </is>
       </c>
-      <c r="T24" s="5" t="inlineStr">
+      <c r="U24" s="5" t="inlineStr">
         <is>
           <t>2023-018</t>
         </is>
       </c>
-      <c r="U24" s="7" t="n">
+      <c r="V24" s="7" t="n">
         <v>45081</v>
       </c>
-      <c r="V24" s="5" t="inlineStr">
+      <c r="W24" s="5" t="inlineStr">
         <is>
           <t>4/28/2023</t>
         </is>
       </c>
-      <c r="W24" s="5" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>4/28/2023</t>
         </is>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>###########</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>6/23/2023</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr">
+      <c r="AA24" s="5" t="inlineStr">
         <is>
           <t>MJM BUILDERS</t>
         </is>
       </c>
-      <c r="AA24" s="5" t="inlineStr">
+      <c r="AB24" s="5" t="inlineStr">
         <is>
           <t>WITH TIME EXTENSIONS AND WITH LIQUIDATED DAMAGES</t>
         </is>
       </c>
-      <c r="AB24" s="6" t="n"/>
+      <c r="AC24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>204</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Southern Leyte</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>122230</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Triana Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>LIMASAWA</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>6428742.23</v>
       </c>
-      <c r="M25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5" t="n">
         <v>6302256.68</v>
       </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="Q25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>1/25/2024</t>
         </is>
       </c>
-      <c r="R25" s="7" t="n">
+      <c r="S25" s="7" t="n">
         <v>45627</v>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>CY2023-Gabaldon-L1</t>
         </is>
       </c>
-      <c r="T25" s="5" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
         <is>
           <t>CY2023-Gabaldon-L1</t>
         </is>
       </c>
-      <c r="U25" s="5" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>4/17/2023</t>
         </is>
-      </c>
-      <c r="V25" s="7" t="n">
-        <v>45174</v>
       </c>
       <c r="W25" s="7" t="n">
         <v>45174</v>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="X25" s="7" t="n">
+        <v>45174</v>
+      </c>
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>7/17/2023</t>
         </is>
       </c>
-      <c r="Y25" s="7" t="n">
+      <c r="Z25" s="7" t="n">
         <v>44993</v>
       </c>
-      <c r="Z25" s="5" t="inlineStr">
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>QCC Construction and Supply</t>
         </is>
       </c>
-      <c r="AA25" s="5" t="inlineStr">
+      <c r="AB25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AB25" s="6" t="n"/>
+      <c r="AC25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>271</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Borongan City</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>122387</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>San Saturnino Elementary School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>CITY OF BORONGAN (Capital)</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>6331343.3</v>
       </c>
-      <c r="M26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5" t="n">
         <v>6326335.72</v>
       </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="Q26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>11/18/2024</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>11/15/2024</t>
         </is>
       </c>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>CY 2024 GABALDON</t>
         </is>
       </c>
-      <c r="T26" s="5" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>CY 2024 GABALDON</t>
         </is>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="V26" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>3/20/2024</t>
         </is>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="X26" s="7" t="n">
         <v>45326</v>
       </c>
-      <c r="X26" s="7" t="n">
+      <c r="Y26" s="7" t="n">
         <v>45508</v>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>7/17/2024</t>
         </is>
       </c>
-      <c r="Z26" s="5" t="inlineStr">
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>LEXBUILD CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA26" s="5" t="inlineStr">
+      <c r="AB26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AB26" s="6" t="n"/>
+      <c r="AC26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>272</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Eastern Samar</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>122524</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Guiuan East Central School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>GUIUAN</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>5974124.58</v>
       </c>
-      <c r="M27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5" t="n">
         <v>5946102.72</v>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="Q27" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q27" s="7" t="n">
+      <c r="R27" s="7" t="n">
         <v>45302</v>
       </c>
-      <c r="R27" s="5" t="inlineStr"/>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr"/>
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>CY2024-GABALDON-L1</t>
         </is>
       </c>
-      <c r="T27" s="5" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>CY2024-GABALDON-L1</t>
         </is>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="V27" s="7" t="n">
         <v>45354</v>
       </c>
-      <c r="V27" s="7" t="n">
+      <c r="W27" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="W27" s="5" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>3/25/2024</t>
         </is>
       </c>
-      <c r="X27" s="7" t="n">
+      <c r="Y27" s="7" t="n">
         <v>45572</v>
       </c>
-      <c r="Y27" s="5" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>7/27/2024</t>
         </is>
       </c>
-      <c r="Z27" s="5" t="inlineStr">
+      <c r="AA27" s="5" t="inlineStr">
         <is>
           <t>TUBIGAN BUILDERS</t>
         </is>
       </c>
-      <c r="AA27" s="5" t="inlineStr"/>
-      <c r="AB27" s="6" t="n"/>
+      <c r="AB27" s="5" t="inlineStr"/>
+      <c r="AC27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>273</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>121004</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Tinag-an Elementary School</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>ALBUERA</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>5036203.53</v>
       </c>
-      <c r="M28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5" t="n">
         <v>3878143.65</v>
       </c>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="Q28" s="5" t="n">
         <v>0.75</v>
       </c>
-      <c r="Q28" s="7" t="n">
+      <c r="R28" s="7" t="n">
         <v>45749</v>
       </c>
-      <c r="R28" s="5" t="inlineStr"/>
-      <c r="S28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr"/>
+      <c r="T28" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-1</t>
         </is>
       </c>
-      <c r="T28" s="5" t="inlineStr">
+      <c r="U28" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-1</t>
         </is>
       </c>
-      <c r="U28" s="7" t="n">
+      <c r="V28" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="V28" s="5" t="inlineStr">
+      <c r="W28" s="5" t="inlineStr">
         <is>
           <t>4/15/2024</t>
         </is>
       </c>
-      <c r="W28" s="5" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>4/29/2024</t>
         </is>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Y28" s="7" t="n">
+      <c r="Z28" s="7" t="n">
         <v>45299</v>
       </c>
-      <c r="Z28" s="5" t="inlineStr">
+      <c r="AA28" s="5" t="inlineStr">
         <is>
           <t>SAINT JOSPEH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA28" s="5" t="inlineStr">
+      <c r="AB28" s="5" t="inlineStr">
         <is>
           <t>with time extension</t>
         </is>
       </c>
-      <c r="AB28" s="6" t="n"/>
+      <c r="AC28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>274</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Leyte</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>121446</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Matlang Elementary School</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>ISABEL</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>4010447.89</v>
       </c>
-      <c r="M29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="5" t="n">
         <v>3958128.42</v>
       </c>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="P29" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="5" t="inlineStr">
+      <c r="Q29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>12/30/2024</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>12/30/2024</t>
         </is>
       </c>
-      <c r="S29" s="5" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-2</t>
         </is>
       </c>
-      <c r="T29" s="5" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF_Conservation and Restoration of Gabaldon School Building Program-(RVIII)-LEYTE-Lot-2</t>
         </is>
       </c>
-      <c r="U29" s="7" t="n">
+      <c r="V29" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="V29" s="5" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>4/15/2024</t>
         </is>
       </c>
-      <c r="W29" s="5" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>4/29/2024</t>
         </is>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>7/26/2024</t>
         </is>
       </c>
-      <c r="Z29" s="5" t="inlineStr">
+      <c r="AA29" s="5" t="inlineStr">
         <is>
           <t>FOUR K BUILDERS &amp; CONST. SUPPLIES</t>
         </is>
       </c>
-      <c r="AA29" s="5" t="inlineStr"/>
-      <c r="AB29" s="6" t="n"/>
+      <c r="AB29" s="5" t="inlineStr"/>
+      <c r="AC29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>275</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region VIII</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Maasin City</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>122177</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Tomas Oppus Pilot School (TOPS)</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>CITY OF MAASIN (Capital)</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>8601473.609999999</v>
       </c>
-      <c r="M30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5" t="n">
         <v>5962743.44</v>
       </c>
-      <c r="O30" s="5" t="inlineStr">
+      <c r="P30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="Q30" s="5" t="n">
         <v>0.35</v>
       </c>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>7/21/2025</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr"/>
-      <c r="S30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr"/>
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2024-04</t>
         </is>
       </c>
-      <c r="T30" s="5" t="inlineStr">
+      <c r="U30" s="5" t="inlineStr">
         <is>
           <t>INFRA-2024-04</t>
         </is>
       </c>
-      <c r="U30" s="7" t="n">
+      <c r="V30" s="7" t="n">
         <v>45603</v>
       </c>
-      <c r="V30" s="5" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>7/19/2024</t>
         </is>
       </c>
-      <c r="W30" s="5" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>7/31/2024</t>
         </is>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>9/25/2024</t>
         </is>
       </c>
-      <c r="Y30" s="7" t="n">
+      <c r="Z30" s="7" t="n">
         <v>45870</v>
       </c>
-      <c r="Z30" s="5" t="inlineStr">
+      <c r="AA30" s="5" t="inlineStr">
         <is>
           <t>VHITS D.G. BUILDERS &amp; ENTERPRISES</t>
         </is>
       </c>
-      <c r="AA30" s="5" t="inlineStr">
+      <c r="AB30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AB30" s="6" t="n"/>
+      <c r="AC30" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB30" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC30" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
